--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="28155" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Live branch</t>
   </si>
@@ -55,27 +55,9 @@
     <t>deptName</t>
   </si>
   <si>
-    <t>Station Name 1</t>
-  </si>
-  <si>
     <t>Andrew Department</t>
   </si>
   <si>
-    <t>//a[@href=\"http://live.retteralarm.de/admin/Informations/index\"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle mail id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St 06 resource name </t>
-  </si>
-  <si>
-    <t>ADST06R2</t>
-  </si>
-  <si>
-    <t>Bhupesh+adst06v31</t>
-  </si>
-  <si>
     <t>bhupesh.dept_dev@atpl.in</t>
   </si>
   <si>
@@ -83,13 +65,37 @@
   </si>
   <si>
     <t>Bhupesh department 1</t>
+  </si>
+  <si>
+    <t>06v1</t>
+  </si>
+  <si>
+    <t>St1V1</t>
+  </si>
+  <si>
+    <t>st1N</t>
+  </si>
+  <si>
+    <t>06v3</t>
+  </si>
+  <si>
+    <t>St1V2</t>
+  </si>
+  <si>
+    <t>bh1st1</t>
+  </si>
+  <si>
+    <t>bh1st1&gt;1</t>
+  </si>
+  <si>
+    <t>bh1st1&gt;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,9 +141,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,15 +489,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -490,49 +506,55 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="Bhupesh+adst06v31@atpl.in"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="28155" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="23085" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Live branch</t>
   </si>
@@ -89,13 +89,34 @@
   </si>
   <si>
     <t>bh1st1&gt;2</t>
+  </si>
+  <si>
+    <t>andrew station 07</t>
+  </si>
+  <si>
+    <t>st2N</t>
+  </si>
+  <si>
+    <t>st2V1</t>
+  </si>
+  <si>
+    <t>ADST07V1</t>
+  </si>
+  <si>
+    <t>Bhupesh+adst06V2newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+adst06V1newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>dailyVehicleEmailIdA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +134,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -144,9 +171,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,7 +472,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,7 +523,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -524,7 +551,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -535,7 +562,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -545,16 +572,44 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="23085" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19410" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Live branch</t>
   </si>
@@ -109,39 +109,23 @@
     <t>Bhupesh+adst06V1newDaily@atinatechnology.in</t>
   </si>
   <si>
-    <t>dailyVehicleEmailIdA</t>
+    <t>dailyVehicleEmailId1</t>
+  </si>
+  <si>
+    <t>dailyVehicleEmailId2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000C0"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,22 +145,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +447,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +490,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -523,8 +498,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -551,7 +525,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -562,7 +536,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -584,7 +558,7 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -592,12 +566,15 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19410" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="23085" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Live branch</t>
   </si>
@@ -113,19 +113,51 @@
   </si>
   <si>
     <t>dailyVehicleEmailId2</t>
+  </si>
+  <si>
+    <t>914-IN-U11-U011-1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Station04</t>
+  </si>
+  <si>
+    <t>04v1</t>
+  </si>
+  <si>
+    <t>04v2</t>
+  </si>
+  <si>
+    <t>Station05</t>
+  </si>
+  <si>
+    <t>05v1</t>
+  </si>
+  <si>
+    <t>Bh1st2</t>
+  </si>
+  <si>
+    <t>st2v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +480,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,6 +523,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
@@ -509,6 +545,9 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
@@ -520,6 +559,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
@@ -531,6 +573,9 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
@@ -542,6 +587,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
@@ -553,6 +601,12 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -560,6 +614,12 @@
       </c>
       <c r="B10" t="s">
         <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="23085" windowHeight="10845"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Live branch</t>
   </si>
@@ -140,13 +140,64 @@
   </si>
   <si>
     <t>st2v1</t>
+  </si>
+  <si>
+    <t>St1AttributeName</t>
+  </si>
+  <si>
+    <t>St1ResourceName</t>
+  </si>
+  <si>
+    <t>ADST06A2</t>
+  </si>
+  <si>
+    <t>ADST06R2</t>
+  </si>
+  <si>
+    <t>D1ST4A1</t>
+  </si>
+  <si>
+    <t>D1ST04R1</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingStationUser1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingFirefighter1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingFirefighter2@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>stUEmail</t>
+  </si>
+  <si>
+    <t>ff1UEmail</t>
+  </si>
+  <si>
+    <t>ff2UEmail</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveStationUser1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveFirefighter1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveFirefighter2@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+d1St04V1newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+d1St04V2newDaily@atinatechnology.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +209,13 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,14 +235,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,16 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -629,6 +693,9 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -636,6 +703,64 @@
       </c>
       <c r="B12" t="s">
         <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -644,9 +769,16 @@
     <hyperlink ref="D4" r:id="rId2"/>
     <hyperlink ref="B11" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20730" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20220" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Live branch</t>
   </si>
@@ -61,136 +61,145 @@
     <t>bhupesh.dept_dev@atpl.in</t>
   </si>
   <si>
+    <t>Bhupesh department 1</t>
+  </si>
+  <si>
+    <t>06v1</t>
+  </si>
+  <si>
+    <t>St1V1</t>
+  </si>
+  <si>
+    <t>st1N</t>
+  </si>
+  <si>
+    <t>06v3</t>
+  </si>
+  <si>
+    <t>St1V2</t>
+  </si>
+  <si>
+    <t>bh1st1</t>
+  </si>
+  <si>
+    <t>bh1st1&gt;1</t>
+  </si>
+  <si>
+    <t>bh1st1&gt;2</t>
+  </si>
+  <si>
+    <t>andrew station 07</t>
+  </si>
+  <si>
+    <t>st2N</t>
+  </si>
+  <si>
+    <t>st2V1</t>
+  </si>
+  <si>
+    <t>ADST07V1</t>
+  </si>
+  <si>
+    <t>Bhupesh+adst06V2newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+adst06V1newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>dailyVehicleEmailId1</t>
+  </si>
+  <si>
+    <t>dailyVehicleEmailId2</t>
+  </si>
+  <si>
+    <t>914-IN-U11-U011-1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Station04</t>
+  </si>
+  <si>
+    <t>04v1</t>
+  </si>
+  <si>
+    <t>04v2</t>
+  </si>
+  <si>
+    <t>Station05</t>
+  </si>
+  <si>
+    <t>05v1</t>
+  </si>
+  <si>
+    <t>Bh1st2</t>
+  </si>
+  <si>
+    <t>st2v1</t>
+  </si>
+  <si>
+    <t>St1AttributeName</t>
+  </si>
+  <si>
+    <t>St1ResourceName</t>
+  </si>
+  <si>
+    <t>ADST06A2</t>
+  </si>
+  <si>
+    <t>ADST06R2</t>
+  </si>
+  <si>
+    <t>D1ST4A1</t>
+  </si>
+  <si>
+    <t>D1ST04R1</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingStationUser1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingFirefighter1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+TestingFirefighter2@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>stUEmail</t>
+  </si>
+  <si>
+    <t>ff1UEmail</t>
+  </si>
+  <si>
+    <t>ff2UEmail</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveStationUser1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveFirefighter1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveFirefighter2@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+d1St04V1newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+d1St04V2newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Bhupesh+bh1st1v1newDaily@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>BH1ST1R1</t>
+  </si>
+  <si>
+    <t>Bhupesh+bh1st1v2newDaily@atinatechnology.in</t>
+  </si>
+  <si>
     <t>Qwerty@123</t>
-  </si>
-  <si>
-    <t>Bhupesh department 1</t>
-  </si>
-  <si>
-    <t>06v1</t>
-  </si>
-  <si>
-    <t>St1V1</t>
-  </si>
-  <si>
-    <t>st1N</t>
-  </si>
-  <si>
-    <t>06v3</t>
-  </si>
-  <si>
-    <t>St1V2</t>
-  </si>
-  <si>
-    <t>bh1st1</t>
-  </si>
-  <si>
-    <t>bh1st1&gt;1</t>
-  </si>
-  <si>
-    <t>bh1st1&gt;2</t>
-  </si>
-  <si>
-    <t>andrew station 07</t>
-  </si>
-  <si>
-    <t>st2N</t>
-  </si>
-  <si>
-    <t>st2V1</t>
-  </si>
-  <si>
-    <t>ADST07V1</t>
-  </si>
-  <si>
-    <t>Bhupesh+adst06V2newDaily@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>Bhupesh+adst06V1newDaily@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>dailyVehicleEmailId1</t>
-  </si>
-  <si>
-    <t>dailyVehicleEmailId2</t>
-  </si>
-  <si>
-    <t>914-IN-U11-U011-1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Station04</t>
-  </si>
-  <si>
-    <t>04v1</t>
-  </si>
-  <si>
-    <t>04v2</t>
-  </si>
-  <si>
-    <t>Station05</t>
-  </si>
-  <si>
-    <t>05v1</t>
-  </si>
-  <si>
-    <t>Bh1st2</t>
-  </si>
-  <si>
-    <t>st2v1</t>
-  </si>
-  <si>
-    <t>St1AttributeName</t>
-  </si>
-  <si>
-    <t>St1ResourceName</t>
-  </si>
-  <si>
-    <t>ADST06A2</t>
-  </si>
-  <si>
-    <t>ADST06R2</t>
-  </si>
-  <si>
-    <t>D1ST4A1</t>
-  </si>
-  <si>
-    <t>D1ST04R1</t>
-  </si>
-  <si>
-    <t>bhupesh+TestingStationUser1@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>bhupesh+TestingFirefighter1@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>bhupesh+TestingFirefighter2@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>stUEmail</t>
-  </si>
-  <si>
-    <t>ff1UEmail</t>
-  </si>
-  <si>
-    <t>ff2UEmail</t>
-  </si>
-  <si>
-    <t>bhupesh+LiveStationUser1@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>bhupesh+LiveFirefighter1@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>bhupesh+LiveFirefighter2@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>Bhupesh+d1St04V1newDaily@atinatechnology.in</t>
-  </si>
-  <si>
-    <t>Bhupesh+d1St04V2newDaily@atinatechnology.in</t>
   </si>
 </sst>
 </file>
@@ -544,7 +553,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,9 +597,9 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -598,8 +607,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -610,175 +619,186 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
-    <hyperlink ref="C17" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B17" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D4" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20220" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18615" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Live branch</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>bhupesh+DevStationUser1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>BH1A1</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,6 +739,9 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -758,6 +767,9 @@
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -769,8 +781,11 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -778,6 +793,9 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -796,9 +814,12 @@
     <hyperlink ref="D11" r:id="rId11"/>
     <hyperlink ref="D12" r:id="rId12"/>
     <hyperlink ref="D4" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Live branch</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>BH1A1</t>
+  </si>
+  <si>
+    <t>bhupesh+DevFirefighter1@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+DevFirefighter2@atinatechnology.in</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,7 +788,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -796,7 +802,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Live branch</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>bhupesh+DevFirefighter2@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>bhupesh+DevMRuser3@atinatechnology.in</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,6 +806,11 @@
       </c>
       <c r="D17" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18615" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18570" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Live branch</t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,6 +621,12 @@
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>60</v>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18570" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18780" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
-  <si>
-    <t>Live branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Branch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev branch </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -215,6 +206,18 @@
   </si>
   <si>
     <t>bhupesh+DevMRuser3@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>Live branch-with department</t>
+  </si>
+  <si>
+    <t>Testing Branch -with department</t>
+  </si>
+  <si>
+    <t>Dev branch -with department</t>
+  </si>
+  <si>
+    <t>Testing Branch -with out department</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,246 +580,295 @@
     <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <v>123456</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="D18" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -837,9 +889,13 @@
     <hyperlink ref="D15" r:id="rId14"/>
     <hyperlink ref="D16" r:id="rId15"/>
     <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="F15" r:id="rId17"/>
+    <hyperlink ref="F17" r:id="rId18"/>
+    <hyperlink ref="F11" r:id="rId19"/>
+    <hyperlink ref="F12" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18780" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18570" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -172,9 +172,6 @@
     <t>bhupesh+LiveFirefighter1@atinatechnology.in</t>
   </si>
   <si>
-    <t>bhupesh+LiveFirefighter2@atinatechnology.in</t>
-  </si>
-  <si>
     <t>Bhupesh+d1St04V1newDaily@atinatechnology.in</t>
   </si>
   <si>
@@ -218,6 +215,27 @@
   </si>
   <si>
     <t>Testing Branch -with out department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch Value </t>
+  </si>
+  <si>
+    <t>23917-IN-robert-ff1-1</t>
+  </si>
+  <si>
+    <t>Live Branch -with out department</t>
+  </si>
+  <si>
+    <t>RobertStation</t>
+  </si>
+  <si>
+    <t>robert.v1</t>
+  </si>
+  <si>
+    <t>robert.v2</t>
+  </si>
+  <si>
+    <t>bhupesh+LiveFirefighter20@atinatechnology.in</t>
   </si>
 </sst>
 </file>
@@ -245,19 +263,38 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -269,10 +306,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,21 +623,25 @@
     <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
     <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -627,6 +674,9 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -636,13 +686,16 @@
         <v>123456</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -662,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -675,11 +728,14 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -691,6 +747,9 @@
       </c>
       <c r="D7" t="s">
         <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -709,6 +768,9 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
@@ -755,30 +817,30 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -792,7 +854,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -809,7 +871,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -826,7 +888,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>43</v>
@@ -843,32 +905,55 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -879,23 +964,22 @@
     <hyperlink ref="C15" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B17" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="D11" r:id="rId11"/>
-    <hyperlink ref="D12" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="F15" r:id="rId17"/>
-    <hyperlink ref="F17" r:id="rId18"/>
-    <hyperlink ref="F11" r:id="rId19"/>
-    <hyperlink ref="F12" r:id="rId20"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D4" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="F15" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="F11" r:id="rId18"/>
+    <hyperlink ref="F12" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18570" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,7 +813,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -977,9 +977,10 @@
     <hyperlink ref="F17" r:id="rId17"/>
     <hyperlink ref="F11" r:id="rId18"/>
     <hyperlink ref="F12" r:id="rId19"/>
+    <hyperlink ref="B17" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>bhupesh+LiveFirefighter20@atinatechnology.in</t>
+  </si>
+  <si>
+    <t>d1st4a1</t>
+  </si>
+  <si>
+    <t>st01A1</t>
+  </si>
+  <si>
+    <t>st01R1</t>
+  </si>
+  <si>
+    <t>D1ST04R2</t>
   </si>
 </sst>
 </file>
@@ -611,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,30 +941,76 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="D18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E26" s="3">
         <v>1.5</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F26" s="3">
         <v>2.5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G26" s="3">
         <v>3.5</v>
       </c>
     </row>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="8430"/>
+    <workbookView xWindow="7275" yWindow="3780" windowWidth="21525" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>D1ST04R2</t>
+  </si>
+  <si>
+    <t>D104v1</t>
+  </si>
+  <si>
+    <t>D104v2</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -775,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>

--- a/DetailsFile/DetailsFile.xlsx
+++ b/DetailsFile/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3780" windowWidth="21525" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
